--- a/biology/Botanique/Arbutus/Arbutus.xlsx
+++ b/biology/Botanique/Arbutus/Arbutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbutus (les arbousiers)[1] est un genre de plantes à fleurs de la famille des Ericaceae, originaire des régions tempérées chaudes de la Méditerranée, de l'Europe occidentale et de l'Amérique du Nord.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbutus (les arbousiers) est un genre de plantes à fleurs de la famille des Ericaceae, originaire des régions tempérées chaudes de la Méditerranée, de l'Europe occidentale et de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (5 oct. 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (5 oct. 2014) :
 Arbutus arizonica (A. Gray) Sarg.  originaire du sud-ouest des États-Unis. Hauteur jusqu'à 15 mètres.
 Arbutus menziesii Pursh  Originaire de l'ouest des États-Unis. Hauteur jusqu'à 15 mètres.
 Arbutus unedo L.
 Arbutus xalapensis Kunth
-Selon NCBI  (5 oct. 2014)[3] :
+Selon NCBI  (5 oct. 2014) :
 Arbutus andrachne - originaire de Méditerranée orientale. Il fleurit au printemps. Hauteur jusqu'à 12 mètres.
 Arbutus arizonica
 Arbutus canariensis
@@ -528,7 +542,7 @@
 Arbutus unedo
 Arbutus xalapensis
 variété Arbutus xalapensis var. texana
-Selon Tropicos                                           (5 oct. 2014)[4] (liste brute contenant des synonymes) :
+Selon Tropicos                                           (5 oct. 2014) (liste brute contenant des synonymes) :
 Arbutus acerba Gilib.
 Arbutus alpina L.
 Arbutus andrachne L.
@@ -602,7 +616,7 @@
 Arbutus villosa Willd. ex Klotzsch
 Arbutus vulgaris Bubani
 Arbutus xalapensis Kunth
-Selon Catalogue of Life                                   (7 novembre 2020)[5] :
+Selon Catalogue of Life                                   (7 novembre 2020) :
 Arbutus andrachne
 Arbutus ×andrachnoides
 Arbutus androsterilis
@@ -645,7 +659,9 @@
           <t>Espèces hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Arbutus × andrachnoides Link - hybride entre Arbutus unedo et Arbutus andrachne. Obtenu en Grande-Bretagne vers 1800. Hauteur jusqu'à 7 mètres.
 Arbutus × thuretiana hybride entre Arbutus unedo et Arbutus canariensis.</t>
